--- a/branches/branch2/all-profiles.xlsx
+++ b/branches/branch2/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-23T16:46:24+00:00</t>
+    <t>2023-04-23T16:59:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
